--- a/点击事件流程.xlsx
+++ b/点击事件流程.xlsx
@@ -14,33 +14,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>用户和屏幕的交互会出现的操作</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2个手指</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1个手指</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>使用的类、方法</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>touch</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>scroll</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fling</t>
+    <t>touch（点击）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scroll（移动）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fling（滑动）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发事件（1个手指）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发事件（2个手指）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_DOWN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_DOWN
+ACTION_MOVE
+ACTION_UP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_DOWN
+ACTION_MOVE
+ACTION_UP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gesture
+VelocityTracker
+Scroller
+FlingDetector</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -410,52 +437,65 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="10.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="12" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
